--- a/job-portal-server/backup.xlsx
+++ b/job-portal-server/backup.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +595,7 @@
         <v>Bangalore</v>
       </c>
       <c r="H5" t="str">
-        <v>2024-03-21</v>
+        <v>2024-05-07</v>
       </c>
       <c r="I5" t="str">
         <v>more than 5yr</v>
@@ -739,16 +739,98 @@
         <v>45385.43645886574</v>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>web Developer</v>
+      </c>
+      <c r="C9" t="str">
+        <v>PwC</v>
+      </c>
+      <c r="D9" t="str">
+        <v>50k</v>
+      </c>
+      <c r="E9" t="str">
+        <v>100k</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Delhi</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2024-05-07</v>
+      </c>
+      <c r="I9" t="str">
+        <v>1yr-2yr</v>
+      </c>
+      <c r="J9" t="str">
+        <v>https://www.pngitem.com/pimgs/m/198-1984447_file-logo-pwc-pwc-logo-png-transparent-png.png</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Mollit in laborum tempor Lorem incididunt irure. Aute eu ex ad sunt. Pariatur sint culpa do incididunt eiusmod eiusmod culpa. laborum tempor Lorem incididunt.</v>
+      </c>
+      <c r="M9" t="str">
+        <v>rahulrikhari2001@gmail.com</v>
+      </c>
+      <c r="O9" s="1">
+        <v>45419.51322170139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Graphic Design</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Adobe</v>
+      </c>
+      <c r="D10" t="str">
+        <v>30k</v>
+      </c>
+      <c r="E10" t="str">
+        <v>80k</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Lucknow</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2024-05-07</v>
+      </c>
+      <c r="I10" t="str">
+        <v>1yr-2yr</v>
+      </c>
+      <c r="J10" t="str">
+        <v>https://logodownload.org/wp-content/uploads/2017/04/adobe-logo-1.png</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Mollit in laborum tempor Lorem incididunt irure. Aute eu ex ad sunt. Pariatur sint culpa do incididunt eiusmod eiusmod culpa. laborum tempor Lorem incididunt.</v>
+      </c>
+      <c r="M10" t="str">
+        <v>rahulrikhari2001@gmail.com</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45419.53549138889</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,9 +957,26 @@
         <v>45396.98081929398</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Jatin Awasthi</v>
+      </c>
+      <c r="C8" t="str">
+        <v>jatinawasthi@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>$2b$10$7oNkO7LuCKyQIDHsEa3G4.XuaIw64fj/dtqoK808hOUW1BwzLy6Ba</v>
+      </c>
+      <c r="E8" t="str">
+        <v>user</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45419.49381148148</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/job-portal-server/backup.xlsx
+++ b/job-portal-server/backup.xlsx
@@ -782,22 +782,22 @@
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>Graphic Design</v>
+        <v xml:space="preserve">Web Developer </v>
       </c>
       <c r="C10" t="str">
-        <v>Adobe</v>
+        <v>Wipro</v>
       </c>
       <c r="D10" t="str">
         <v>30k</v>
       </c>
       <c r="E10" t="str">
-        <v>80k</v>
+        <v>100k</v>
       </c>
       <c r="F10" t="str">
         <v>Monthly</v>
       </c>
       <c r="G10" t="str">
-        <v>Lucknow</v>
+        <v>Delhi</v>
       </c>
       <c r="H10" t="str">
         <v>2024-05-07</v>
@@ -806,19 +806,19 @@
         <v>1yr-2yr</v>
       </c>
       <c r="J10" t="str">
-        <v>https://logodownload.org/wp-content/uploads/2017/04/adobe-logo-1.png</v>
+        <v>https://th.bing.com/th/id/OIP.kz362e0cJzsKYwzeAFMwzQHaGk?rs=1&amp;pid=ImgDetMain</v>
       </c>
       <c r="K10" t="str">
         <v>Full-time</v>
       </c>
       <c r="L10" t="str">
-        <v>Mollit in laborum tempor Lorem incididunt irure. Aute eu ex ad sunt. Pariatur sint culpa do incididunt eiusmod eiusmod culpa. laborum tempor Lorem incididunt.</v>
+        <v>Join our dynamic team as we seek a talented web developer to bring innovation and creativity to our projects!</v>
       </c>
       <c r="M10" t="str">
         <v>rahulrikhari2001@gmail.com</v>
       </c>
       <c r="O10" s="1">
-        <v>45419.53549138889</v>
+        <v>45419.739919618056</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,99 +891,82 @@
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>Mayank Tiwari</v>
+        <v>Mohit Singh</v>
       </c>
       <c r="C4" t="str">
-        <v>mayanktiwari@gmail.com</v>
+        <v>mohitsingh@gmail.com</v>
       </c>
       <c r="D4" t="str">
-        <v>$2b$10$oOa0JjvTyxAwHvyGQrh/vul5SkBEiN.MUxRI5v1GrDnmJzfzhLDMy</v>
+        <v>$2b$10$jU2kvMzSWl4QsGbXw7jsa.hMh7kzGHQxuj9tcgalbO7Y4CeOKgtM6</v>
       </c>
       <c r="E4" t="str">
-        <v>user</v>
+        <v>recruiter</v>
       </c>
       <c r="F4" s="1">
-        <v>45380.50682743055</v>
+        <v>45391.64289560185</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>Mohit Singh</v>
+        <v>Vikas Yadav</v>
       </c>
       <c r="C5" t="str">
-        <v>mohitsingh@gmail.com</v>
+        <v>vikasyadav@gmail.com</v>
       </c>
       <c r="D5" t="str">
-        <v>$2b$10$jU2kvMzSWl4QsGbXw7jsa.hMh7kzGHQxuj9tcgalbO7Y4CeOKgtM6</v>
+        <v>$2b$10$0do5HoAwkCoOLW1LHlGVVO1vl1lLx9xWHfaXR0s7iEghSC48cF5CW</v>
       </c>
       <c r="E5" t="str">
-        <v>recruiter</v>
+        <v>user</v>
       </c>
       <c r="F5" s="1">
-        <v>45391.64289560185</v>
+        <v>45394.610966064814</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>Vikas Yadav</v>
+        <v>Mukund Shukla</v>
       </c>
       <c r="C6" t="str">
-        <v>vikasyadav@gmail.com</v>
+        <v>mukundshukla@gmail.com</v>
       </c>
       <c r="D6" t="str">
-        <v>$2b$10$0do5HoAwkCoOLW1LHlGVVO1vl1lLx9xWHfaXR0s7iEghSC48cF5CW</v>
+        <v>$2b$10$GQdithaDEUgmwOhf7Z2Y9.XHy2.L3jnwH36SvoGR5QDE1uEa6BHEG</v>
       </c>
       <c r="E6" t="str">
-        <v>user</v>
+        <v>recruiter</v>
       </c>
       <c r="F6" s="1">
-        <v>45394.610966064814</v>
+        <v>45396.98081929398</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>Mukund Shukla</v>
+        <v>Jatin Awasthi</v>
       </c>
       <c r="C7" t="str">
-        <v>mukundshukla@gmail.com</v>
+        <v>jatinawasthi@gmail.com</v>
       </c>
       <c r="D7" t="str">
-        <v>$2b$10$GQdithaDEUgmwOhf7Z2Y9.XHy2.L3jnwH36SvoGR5QDE1uEa6BHEG</v>
+        <v>$2b$10$7oNkO7LuCKyQIDHsEa3G4.XuaIw64fj/dtqoK808hOUW1BwzLy6Ba</v>
       </c>
       <c r="E7" t="str">
-        <v>recruiter</v>
+        <v>user</v>
       </c>
       <c r="F7" s="1">
-        <v>45396.98081929398</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>Jatin Awasthi</v>
-      </c>
-      <c r="C8" t="str">
-        <v>jatinawasthi@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>$2b$10$7oNkO7LuCKyQIDHsEa3G4.XuaIw64fj/dtqoK808hOUW1BwzLy6Ba</v>
-      </c>
-      <c r="E8" t="str">
-        <v>user</v>
-      </c>
-      <c r="F8" s="1">
         <v>45419.49381148148</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1045,60 +1028,59 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>65fb318339954be453cc9e82</v>
+        <v>65fb345439954be453cc9e84</v>
       </c>
       <c r="C3" t="str">
-        <v>Mayank Tiwari</v>
+        <v>Priya Sharma</v>
       </c>
       <c r="D3" t="str">
-        <v>mayanktiwari@gmail.com</v>
+        <v>priyasharma@gmail.com</v>
       </c>
       <c r="E3" t="str">
-        <v>09451475007</v>
+        <v>987456123</v>
       </c>
       <c r="F3" t="str">
-        <v>https://jofibo.com/images/templates/creative_resume_template_thumbnail.png</v>
+        <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
       </c>
       <c r="G3" t="str">
-        <v>new apply</v>
+        <v>hello new apply changes have done</v>
       </c>
       <c r="H3" t="str">
         <v>accepted</v>
       </c>
-      <c r="I3" s="1">
-        <v>45391.52624346065</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+      <c r="I3" t="str">
+        <v>2024-04-09T07:25:10.383Z</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="str">
-        <v>65fb37e839954be453cc9e85</v>
+        <v>65e2a627b14900399a864617</v>
       </c>
       <c r="C4" t="str">
-        <v>Mayank Tiwari</v>
+        <v>Priya Sharma</v>
       </c>
       <c r="D4" t="str">
-        <v>mayanktiwari@gmail.com</v>
+        <v>priyasharma@gmail.com</v>
       </c>
       <c r="E4" t="str">
-        <v>789654123</v>
+        <v>741258963</v>
       </c>
       <c r="F4" t="str">
-        <v>https://jofibo.com/images/templates/creative_resume_template_thumbnail.png</v>
-      </c>
-      <c r="G4" t="str" xml:space="preserve">
-        <v xml:space="preserve">new apply changes
-</v>
+        <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
+      </c>
+      <c r="G4" t="str">
+        <v>new apply changes</v>
       </c>
       <c r="H4" t="str">
-        <v>rejected</v>
+        <v>accepted</v>
       </c>
       <c r="I4" t="str">
-        <v>2024-04-09T08:15:41.130Z</v>
+        <v>2024-04-09T07:27:01.811Z</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>65fb345439954be453cc9e84</v>
+        <v>65fa54dc7b0d3d01b7fdddc2</v>
       </c>
       <c r="C5" t="str">
         <v>Priya Sharma</v>
@@ -1113,100 +1095,76 @@
         <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
       </c>
       <c r="G5" t="str">
-        <v>hello new apply changes have done</v>
+        <v xml:space="preserve">hello im </v>
       </c>
       <c r="H5" t="str">
         <v>accepted</v>
       </c>
-      <c r="I5" t="str">
-        <v>2024-04-09T07:25:10.383Z</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="I5" s="1">
+        <v>45392.38475013889</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="B6" t="str">
-        <v>65e2a627b14900399a864617</v>
+        <v>65fb32f239954be453cc9e83</v>
       </c>
       <c r="C6" t="str">
-        <v>Priya Sharma</v>
+        <v>Vikas Yadav</v>
       </c>
       <c r="D6" t="str">
-        <v>priyasharma@gmail.com</v>
+        <v>vikasyadav@gmail.com</v>
       </c>
       <c r="E6" t="str">
-        <v>741258963</v>
+        <v>987456123</v>
       </c>
       <c r="F6" t="str">
-        <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
-      </c>
-      <c r="G6" t="str">
-        <v>new apply changes</v>
+        <v>https://jofibo.com/images/templates/creative_resume_template_thumbnail.png</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Dear Hiring Manager,
+I'm writing to express my interest in the Web Developer position at [Company]. With a strong background in web development and proficiency in HTML, CSS, JavaScript, React, and Node.js, I am confident in my ability to contribute effectively to your team.
+In past roles, I've successfully delivered projects showcasing responsive and user-friendly web applications. I am particularly drawn to your company's commitment to innovation and would be thrilled to bring my technical skills and creative problem-solving abilities to your team.
+Thank you for considering my application. I look forward to discussing how my background aligns with your team's needs and contributing to your company's success as a Web Developer.</v>
       </c>
       <c r="H6" t="str">
-        <v>accepted</v>
-      </c>
-      <c r="I6" t="str">
-        <v>2024-04-09T07:27:01.811Z</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>on review</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45419.5575975463</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="B7" t="str">
-        <v>65fa54dc7b0d3d01b7fdddc2</v>
+        <v>6639ced4020005120ed6dfc6</v>
       </c>
       <c r="C7" t="str">
-        <v>Priya Sharma</v>
+        <v>Vikas Yadav</v>
       </c>
       <c r="D7" t="str">
-        <v>priyasharma@gmail.com</v>
+        <v>vikasyadav@gmail.com</v>
       </c>
       <c r="E7" t="str">
         <v>987456123</v>
       </c>
       <c r="F7" t="str">
-        <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve">hello im </v>
+        <v>https://jofibo.com/images/templates/creative_resume_template_thumbnail.png</v>
+      </c>
+      <c r="G7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Dear Hiring Manager,
+I'm writing to express my interest in the Web Developer position. With a strong background in web development and proficiency in HTML, CSS, JavaScript, React, and Node.js, I am confident in my ability to contribute effectively to your team.
+In past roles, I've successfully delivered projects showcasing responsive and user-friendly web applications. I am particularly drawn to your company's commitment to innovation and would be thrilled to bring my technical skills and creative problem-solving abilities to your team.
+Thank you for considering my application. I look forward to discussing how my background aligns with your team's needs and contributing to your company's success as a Web Developer.</v>
       </c>
       <c r="H7" t="str">
-        <v>accepted</v>
+        <v>on review</v>
       </c>
       <c r="I7" s="1">
-        <v>45392.38475013889</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="B8" t="str">
-        <v>65fa54dc7b0d3d01b7fdddc2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Vikas Yadav</v>
-      </c>
-      <c r="D8" t="str">
-        <v>vikasyadav@gmail.com</v>
-      </c>
-      <c r="E8" t="str">
-        <v>987456123</v>
-      </c>
-      <c r="F8" t="str">
-        <v>https://png.pngtree.com/png-clipart/20190603/original/pngtree-personal-resume-png-image_724562.jpg</v>
-      </c>
-      <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dear Hiring Manager,
-Passionate Web Developer with 3 years of experience. Proficient in HTML, CSS, JavaScript; plus modern libraries and frameworks. Committed to responsive design, and user-friendly interfaces. Excited to leverage skills to contribute to your team.
-Sincerely,
-vikas yadav
-</v>
-      </c>
-      <c r="H8" t="str">
-        <v>on review</v>
-      </c>
-      <c r="I8" s="1">
-        <v>45394.681038125</v>
+        <v>45419.96732743055</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>